--- a/Data/Excel/【新模板】用地用海_小类.xlsx
+++ b/Data/Excel/【新模板】用地用海_小类.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
   <si>
     <t>用地用海汇总表</t>
   </si>
@@ -231,758 +231,1028 @@
     <t>空闲地</t>
   </si>
   <si>
+    <t>裸岩石砾地</t>
+  </si>
+  <si>
+    <t>耕地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业设施建设用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>居住用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共管理与公共服务用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业服务业用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>工矿用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓储用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通运输用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公用设施用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他土地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇住宅用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>农村宅基地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>080302</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书与展览用地</t>
+  </si>
+  <si>
+    <t>文化活动用地</t>
+  </si>
+  <si>
+    <t>080403</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高等教育用地</t>
+  </si>
+  <si>
+    <t>中等职业教育用地</t>
+  </si>
+  <si>
+    <t>中小学用地</t>
+  </si>
+  <si>
+    <t>幼儿园用地</t>
+  </si>
+  <si>
+    <t>其他教育用地</t>
+  </si>
+  <si>
+    <t>体育场馆用地</t>
+  </si>
+  <si>
+    <t>体育训练用地</t>
+  </si>
+  <si>
+    <t>080501</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗卫生用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>080602</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院用地</t>
+  </si>
+  <si>
+    <t>基层医疗卫生设施用地</t>
+  </si>
+  <si>
+    <t>公共卫生用地</t>
+  </si>
+  <si>
+    <t>社会福利用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>老年人社会福利用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童社会福利用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>残疾人社会福利用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他社会福利用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>080703</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>090105</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售商业用地</t>
+  </si>
+  <si>
+    <t>批发市场用地</t>
+  </si>
+  <si>
+    <t>餐饮用地</t>
+  </si>
+  <si>
+    <t>旅馆用地</t>
+  </si>
+  <si>
+    <t>公用设施营业网点用地</t>
+  </si>
+  <si>
+    <t>一类工业用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>二类工业用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三类工业用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐田</t>
+  </si>
+  <si>
+    <t>一类物流仓储用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>二类物流仓储用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三类物流仓储用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>120803</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对外交通场站用地</t>
+  </si>
+  <si>
+    <t>公共交通场站用地</t>
+  </si>
+  <si>
+    <t>社会停车场用地</t>
+  </si>
+  <si>
+    <t>城市轨道交通用地</t>
+  </si>
+  <si>
+    <t>管道运输用地</t>
+  </si>
+  <si>
+    <t>港口码头用地</t>
+  </si>
+  <si>
+    <t>机场用地</t>
+  </si>
+  <si>
+    <t>1308</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防用地</t>
+  </si>
+  <si>
+    <t>1402</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>防护绿地</t>
+  </si>
+  <si>
+    <t>1502</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事设施用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>使领馆用地</t>
+  </si>
+  <si>
+    <t>其他特殊用地</t>
+  </si>
+  <si>
+    <t>留白用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖泊水面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰川及常年积雪</t>
+  </si>
+  <si>
+    <t>2304</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2302</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2305</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2306</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>田坎</t>
+  </si>
+  <si>
+    <t>盐碱地</t>
+  </si>
+  <si>
+    <t>沙地</t>
+  </si>
+  <si>
+    <t>裸土地</t>
+  </si>
+  <si>
+    <t>用地用海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>地类代码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>地类名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0102</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0103</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0201</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0203</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0202</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0204</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0301</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0302</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0303</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0304</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0401</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0402</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0403</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0501</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0502</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0503</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0504</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0505</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0506</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0601</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>060101</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>060102</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0602</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0701</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>070101</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>070102</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>070103</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0702</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0703</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>070301</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>070302</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0704</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0801</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0802</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0803</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>080301</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>080401</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0804</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>080402</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>080404</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>080405</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0805</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>080502</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0806</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>080601</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>080603</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0807</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>080701</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>080702</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>080704</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0901</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>090101</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>090102</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>090103</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>090104</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0902</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0903</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0904</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100101</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100102</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100103</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>110101</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>110102</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>110103</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1102</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1201</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1202</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1203</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1204</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1205</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1206</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1207</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1208</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>120801</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>120802</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1209</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1301</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1302</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1303</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1304</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1305</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1306</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1307</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播电视设施用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>供热用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1309</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1310</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1501</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1503</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1504</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1505</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1506</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1507</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1701</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1702</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1703</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1704</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1705</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1706</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>园地</t>
+  </si>
+  <si>
+    <t>林地</t>
+  </si>
+  <si>
+    <t>草地</t>
+  </si>
+  <si>
+    <t>绿地与开敞空间用地</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>渔业用海</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>渔业基础设施用海</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>增养殖用海</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>捕捞海域</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>工矿通信用海</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>工业用海</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>盐田用海</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>固体矿产用海</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>油气用海</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>可再生能源用海</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>海底电缆管道用海</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>交通运输用海</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>港口用海</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>航运用海</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>路桥隧道用海</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>游憩用海</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>风景旅游用海</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>文体休闲娱乐用海</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>特殊用海</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>军事用海</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>其他特殊用海</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>其他海域</t>
+  </si>
+  <si>
+    <t>0205</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶园地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>油料园地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>060201</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>060202</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>060203</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>设施农用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>田间道</t>
-  </si>
-  <si>
-    <t>裸岩石砾地</t>
-  </si>
-  <si>
-    <t>耕地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>湿地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业设施建设用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>居住用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共管理与公共服务用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业服务业用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>工矿用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓储用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通运输用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>公用设施用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他土地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>城镇住宅用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>农村宅基地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>080302</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>图书与展览用地</t>
-  </si>
-  <si>
-    <t>文化活动用地</t>
-  </si>
-  <si>
-    <t>080403</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高等教育用地</t>
-  </si>
-  <si>
-    <t>中等职业教育用地</t>
-  </si>
-  <si>
-    <t>中小学用地</t>
-  </si>
-  <si>
-    <t>幼儿园用地</t>
-  </si>
-  <si>
-    <t>其他教育用地</t>
-  </si>
-  <si>
-    <t>体育场馆用地</t>
-  </si>
-  <si>
-    <t>体育训练用地</t>
-  </si>
-  <si>
-    <t>080501</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗卫生用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>080602</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院用地</t>
-  </si>
-  <si>
-    <t>基层医疗卫生设施用地</t>
-  </si>
-  <si>
-    <t>公共卫生用地</t>
-  </si>
-  <si>
-    <t>社会福利用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>老年人社会福利用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>儿童社会福利用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>残疾人社会福利用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他社会福利用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>080703</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>090105</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>零售商业用地</t>
-  </si>
-  <si>
-    <t>批发市场用地</t>
-  </si>
-  <si>
-    <t>餐饮用地</t>
-  </si>
-  <si>
-    <t>旅馆用地</t>
-  </si>
-  <si>
-    <t>公用设施营业网点用地</t>
-  </si>
-  <si>
-    <t>一类工业用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>二类工业用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>三类工业用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>盐田</t>
-  </si>
-  <si>
-    <t>一类物流仓储用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>二类物流仓储用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>三类物流仓储用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>120803</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>对外交通场站用地</t>
-  </si>
-  <si>
-    <t>公共交通场站用地</t>
-  </si>
-  <si>
-    <t>社会停车场用地</t>
-  </si>
-  <si>
-    <t>城市轨道交通用地</t>
-  </si>
-  <si>
-    <t>管道运输用地</t>
-  </si>
-  <si>
-    <t>港口码头用地</t>
-  </si>
-  <si>
-    <t>机场用地</t>
-  </si>
-  <si>
-    <t>1308</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>消防用地</t>
-  </si>
-  <si>
-    <t>干渠</t>
-  </si>
-  <si>
-    <t>1402</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>防护绿地</t>
-  </si>
-  <si>
-    <t>1502</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>军事设施用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>使领馆用地</t>
-  </si>
-  <si>
-    <t>其他特殊用地</t>
-  </si>
-  <si>
-    <t>留白用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖泊水面</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰川及常年积雪</t>
-  </si>
-  <si>
-    <t>2304</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2302</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2305</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2306</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>田坎</t>
-  </si>
-  <si>
-    <t>盐碱地</t>
-  </si>
-  <si>
-    <t>沙地</t>
-  </si>
-  <si>
-    <t>裸土地</t>
-  </si>
-  <si>
-    <t>用地用海</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>地类代码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>地类名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>07</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>09</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0101</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0102</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0103</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0201</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0203</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0202</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0204</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0301</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0302</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0303</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0304</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0401</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0402</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0403</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0501</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0502</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0503</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0504</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0505</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0506</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0507</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0601</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>060101</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>060102</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0602</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0701</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>070101</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>070102</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>070103</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0702</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0703</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>070301</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>070302</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0704</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0801</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0802</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0803</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>080301</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>080401</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0804</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>080402</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>080404</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>080405</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0805</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>080502</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0806</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>080601</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>080603</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0807</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>080701</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>080702</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>080704</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0901</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>090101</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>090102</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>090103</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>090104</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0902</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0903</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0904</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100101</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100102</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100103</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1002</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1101</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>110101</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>110102</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>110103</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1102</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1201</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1202</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1203</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1204</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1205</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1206</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1207</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1208</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>120801</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>120802</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1209</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1301</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1302</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1303</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1304</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1305</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1306</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1307</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>广播电视设施用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>通信用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>供热用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1309</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1310</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1311</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>种植设施建设用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>畜禽养殖设施建设用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇村道路用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1804</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>农林牧业用岛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>科研教育用海</t>
+  </si>
+  <si>
+    <t>海洋保护修复及海岸防护工程用海</t>
+  </si>
+  <si>
+    <t>排污倾倒用海</t>
+  </si>
+  <si>
+    <t>水下文物保护用海</t>
+  </si>
+  <si>
+    <t>农村道路</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -990,279 +1260,25 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1501</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1503</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1504</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1505</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1506</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1507</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1701</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1702</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1703</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1704</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1705</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1706</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>园地</t>
-  </si>
-  <si>
-    <t>林地</t>
-  </si>
-  <si>
-    <t>草地</t>
-  </si>
-  <si>
-    <t>绿地与开敞空间用地</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>渔业用海</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>渔业基础设施用海</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>增养殖用海</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>捕捞海域</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>工矿通信用海</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>工业用海</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>盐田用海</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>固体矿产用海</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>油气用海</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>可再生能源用海</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>海底电缆管道用海</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>交通运输用海</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>港口用海</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>航运用海</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>路桥隧道用海</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>游憩用海</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>风景旅游用海</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>文体休闲娱乐用海</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>特殊用海</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>军事用海</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>其他特殊用海</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>其他海域</t>
-  </si>
-  <si>
-    <t>0205</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>橡胶园地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>油料园地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>060201</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>060202</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>060203</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>设施农用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>田间道</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>种植设施建设用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>畜禽养殖设施建设用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>娱乐用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>城镇村道路用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1804</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>农林牧业用岛</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>科研教育用海</t>
-  </si>
-  <si>
-    <t>海洋保护修复及海岸防护工程用海</t>
-  </si>
-  <si>
-    <t>排污倾倒用海</t>
-  </si>
-  <si>
-    <t>水下文物保护用海</t>
-  </si>
-  <si>
-    <t>农村道路</t>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>机场用海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他交通运输用海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2303</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>后备耕地</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1536,33 +1552,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1586,6 +1575,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1891,10 +1907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J179"/>
+  <dimension ref="B2:J180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1906,28 +1922,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="B2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="41" t="s">
+      <c r="B3" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="34" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1941,24 +1957,24 @@
       <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="36" t="s">
-        <v>154</v>
+      <c r="B5" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
       </c>
       <c r="G5" s="18" t="e">
-        <f>F5/F179*100</f>
+        <f>F5/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H5" s="21" t="str">
@@ -1975,9 +1991,9 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="37"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
@@ -1987,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="15" t="e">
-        <f>F6/F179*100</f>
+        <f>F6/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H6" s="21">
@@ -2004,9 +2020,9 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="37"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
@@ -2016,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="15" t="e">
-        <f>F7/F179*100</f>
+        <f>F7/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H7" s="21">
@@ -2033,9 +2049,9 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="38"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
@@ -2045,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="15" t="e">
-        <f>F8/F179*100</f>
+        <f>F8/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H8" s="21">
@@ -2062,19 +2078,19 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="36" t="s">
-        <v>155</v>
+      <c r="B9" s="27" t="s">
+        <v>153</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F9" s="19">
         <v>0</v>
       </c>
       <c r="G9" s="19" t="e">
-        <f>F9/F179*100</f>
+        <f>F9/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H9" s="21" t="str">
@@ -2091,9 +2107,9 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="37"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
@@ -2103,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="15" t="e">
-        <f>F10/F179*100</f>
+        <f>F10/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" s="21">
@@ -2120,9 +2136,9 @@
       </c>
     </row>
     <row r="11" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="37"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="s">
@@ -2132,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="16" t="e">
-        <f>F11/F179*100</f>
+        <f>F11/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H11" s="21">
@@ -2149,19 +2165,19 @@
       </c>
     </row>
     <row r="12" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="37"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F12" s="16">
         <v>0</v>
       </c>
       <c r="G12" s="16" t="e">
-        <f>F12/F179*100</f>
+        <f>F12/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="21">
@@ -2178,19 +2194,19 @@
       </c>
     </row>
     <row r="13" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="37"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F13" s="16">
         <v>0</v>
       </c>
       <c r="G13" s="16" t="e">
-        <f>F13/F179*100</f>
+        <f>F13/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" s="21">
@@ -2207,9 +2223,9 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
@@ -2219,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="15" t="e">
-        <f>F14/F179*100</f>
+        <f>F14/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H14" s="21">
@@ -2236,19 +2252,19 @@
       </c>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="36" t="s">
-        <v>156</v>
+      <c r="B15" s="27" t="s">
+        <v>154</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F15" s="19">
         <v>0</v>
       </c>
       <c r="G15" s="19" t="e">
-        <f>F15/F179*100</f>
+        <f>F15/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H15" s="21" t="str">
@@ -2265,9 +2281,9 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="37"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
@@ -2277,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="15" t="e">
-        <f>F16/F179*100</f>
+        <f>F16/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="21">
@@ -2294,9 +2310,9 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="37"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10" t="s">
@@ -2306,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="15" t="e">
-        <f>F17/F179*100</f>
+        <f>F17/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="21">
@@ -2323,9 +2339,9 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="37"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
@@ -2335,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="15" t="e">
-        <f>F18/F179*100</f>
+        <f>F18/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="21">
@@ -2352,9 +2368,9 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="38"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
@@ -2364,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="15" t="e">
-        <f>F19/F179*100</f>
+        <f>F19/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="21">
@@ -2381,19 +2397,19 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="36" t="s">
-        <v>157</v>
+      <c r="B20" s="27" t="s">
+        <v>155</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F20" s="19">
         <v>0</v>
       </c>
       <c r="G20" s="19" t="e">
-        <f>F20/F179*100</f>
+        <f>F20/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="21" t="str">
@@ -2410,9 +2426,9 @@
       </c>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="37"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10" t="s">
@@ -2422,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="15" t="e">
-        <f>F21/F179*100</f>
+        <f>F21/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="21">
@@ -2439,9 +2455,9 @@
       </c>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="37"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10" t="s">
@@ -2451,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="15" t="e">
-        <f>F22/F179*100</f>
+        <f>F22/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H22" s="21">
@@ -2468,9 +2484,9 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="38"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10" t="s">
@@ -2480,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="15" t="e">
-        <f>F23/F179*100</f>
+        <f>F23/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H23" s="21">
@@ -2497,19 +2513,19 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="36" t="s">
-        <v>158</v>
+      <c r="B24" s="27" t="s">
+        <v>156</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" s="19">
         <v>0</v>
       </c>
       <c r="G24" s="19" t="e">
-        <f>F24/F179*100</f>
+        <f>F24/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H24" s="21" t="str">
@@ -2526,9 +2542,9 @@
       </c>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="37"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
@@ -2538,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="15" t="e">
-        <f>F25/F179*100</f>
+        <f>F25/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="21">
@@ -2555,9 +2571,9 @@
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="37"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10" t="s">
@@ -2567,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="15" t="e">
-        <f>F26/F179*100</f>
+        <f>F26/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="21">
@@ -2584,9 +2600,9 @@
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="37"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10" t="s">
@@ -2596,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="15" t="e">
-        <f>F27/F179*100</f>
+        <f>F27/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="21">
@@ -2613,9 +2629,9 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="37"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10" t="s">
@@ -2625,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="15" t="e">
-        <f>F28/F179*100</f>
+        <f>F28/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="21">
@@ -2642,9 +2658,9 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="37"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10" t="s">
@@ -2654,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="15" t="e">
-        <f>F29/F179*100</f>
+        <f>F29/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="21">
@@ -2671,9 +2687,9 @@
       </c>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="37"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10" t="s">
@@ -2683,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="15" t="e">
-        <f>F30/F179*100</f>
+        <f>F30/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="21">
@@ -2700,9 +2716,9 @@
       </c>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="38"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10" t="s">
@@ -2712,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="15" t="e">
-        <f>F31/F179*100</f>
+        <f>F31/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="21">
@@ -2729,19 +2745,19 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="36" t="s">
-        <v>159</v>
+      <c r="B32" s="27" t="s">
+        <v>157</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F32" s="19">
         <v>0</v>
       </c>
       <c r="G32" s="19" t="e">
-        <f>F32/F179*100</f>
+        <f>F32/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H32" s="21" t="str">
@@ -2758,19 +2774,19 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="37"/>
-      <c r="C33" s="30" t="s">
-        <v>193</v>
+      <c r="B33" s="28"/>
+      <c r="C33" s="37" t="s">
+        <v>191</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F33" s="15">
         <v>0</v>
       </c>
       <c r="G33" s="15" t="e">
-        <f>F33/F179*100</f>
+        <f>F33/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="21">
@@ -2787,10 +2803,10 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="37"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>26</v>
@@ -2799,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="15" t="e">
-        <f>F34/F179*100</f>
+        <f>F34/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="21">
@@ -2816,19 +2832,19 @@
       </c>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="37"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F35" s="15">
         <v>0</v>
       </c>
       <c r="G35" s="15" t="e">
-        <f>F35/F179*100</f>
+        <f>F35/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="21">
@@ -2845,19 +2861,19 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="37"/>
-      <c r="C36" s="30" t="s">
-        <v>196</v>
+      <c r="B36" s="28"/>
+      <c r="C36" s="37" t="s">
+        <v>194</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F36" s="15">
         <v>0</v>
       </c>
       <c r="G36" s="15" t="e">
-        <f>F36/F179*100</f>
+        <f>F36/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="21">
@@ -2874,19 +2890,19 @@
       </c>
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="37"/>
-      <c r="C37" s="31"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F37" s="15">
         <v>0</v>
       </c>
       <c r="G37" s="15" t="e">
-        <f>F37/F179*100</f>
+        <f>F37/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="21">
@@ -2903,19 +2919,19 @@
       </c>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="37"/>
-      <c r="C38" s="31"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="38"/>
       <c r="D38" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F38" s="15">
         <v>0</v>
       </c>
       <c r="G38" s="15" t="e">
-        <f>F38/F179*100</f>
+        <f>F38/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="21">
@@ -2932,10 +2948,10 @@
       </c>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="38"/>
-      <c r="C39" s="32"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>27</v>
@@ -2944,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="15" t="e">
-        <f>F39/F179*100</f>
+        <f>F39/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H39" s="21">
@@ -2961,19 +2977,19 @@
       </c>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="36" t="s">
-        <v>160</v>
+      <c r="B40" s="27" t="s">
+        <v>158</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F40" s="19">
         <v>0</v>
       </c>
       <c r="G40" s="19" t="e">
-        <f>F40/F179*100</f>
+        <f>F40/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H40" s="21" t="str">
@@ -2990,19 +3006,19 @@
       </c>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="37"/>
-      <c r="C41" s="30" t="s">
-        <v>197</v>
+      <c r="B41" s="28"/>
+      <c r="C41" s="37" t="s">
+        <v>195</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F41" s="15">
         <v>0</v>
       </c>
       <c r="G41" s="15" t="e">
-        <f>F41/F179*100</f>
+        <f>F41/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="21">
@@ -3019,10 +3035,10 @@
       </c>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="37"/>
-      <c r="C42" s="31"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>28</v>
@@ -3031,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="15" t="e">
-        <f>F42/F179*100</f>
+        <f>F42/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H42" s="21">
@@ -3048,10 +3064,10 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="37"/>
-      <c r="C43" s="31"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="38"/>
       <c r="D43" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>29</v>
@@ -3060,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="15" t="e">
-        <f>F43/F179*100</f>
+        <f>F43/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H43" s="21">
@@ -3077,10 +3093,10 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="37"/>
-      <c r="C44" s="32"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>30</v>
@@ -3089,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="15" t="e">
-        <f>F44/F179*100</f>
+        <f>F44/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H44" s="21">
@@ -3106,9 +3122,9 @@
       </c>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="37"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10" t="s">
@@ -3118,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="15" t="e">
-        <f>F45/F179*100</f>
+        <f>F45/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H45" s="21">
@@ -3135,19 +3151,19 @@
       </c>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="37"/>
-      <c r="C46" s="30" t="s">
-        <v>202</v>
+      <c r="B46" s="28"/>
+      <c r="C46" s="37" t="s">
+        <v>200</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F46" s="15">
         <v>0</v>
       </c>
       <c r="G46" s="15" t="e">
-        <f>F46/F179*100</f>
+        <f>F46/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H46" s="21">
@@ -3164,10 +3180,10 @@
       </c>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="37"/>
-      <c r="C47" s="31"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>32</v>
@@ -3176,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="15" t="e">
-        <f>F47/F179*100</f>
+        <f>F47/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H47" s="21">
@@ -3193,10 +3209,10 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="37"/>
-      <c r="C48" s="32"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>33</v>
@@ -3205,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="15" t="e">
-        <f>F48/F179*100</f>
+        <f>F48/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H48" s="21">
@@ -3222,9 +3238,9 @@
       </c>
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="38"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10" t="s">
@@ -3234,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="15" t="e">
-        <f>F49/F179*100</f>
+        <f>F49/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H49" s="21">
@@ -3251,19 +3267,19 @@
       </c>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="33" t="s">
-        <v>161</v>
+      <c r="B50" s="43" t="s">
+        <v>159</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F50" s="19">
         <v>0</v>
       </c>
       <c r="G50" s="19" t="e">
-        <f>F50/F179*100</f>
+        <f>F50/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H50" s="21" t="str">
@@ -3280,9 +3296,9 @@
       </c>
     </row>
     <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="34"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10" t="s">
@@ -3292,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="15" t="e">
-        <f>F51/F179*100</f>
+        <f>F51/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H51" s="21">
@@ -3309,9 +3325,9 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="34"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10" t="s">
@@ -3321,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="15" t="e">
-        <f>F52/F179*100</f>
+        <f>F52/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H52" s="21">
@@ -3338,9 +3354,9 @@
       </c>
     </row>
     <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="34"/>
-      <c r="C53" s="30" t="s">
-        <v>208</v>
+      <c r="B53" s="44"/>
+      <c r="C53" s="37" t="s">
+        <v>206</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10" t="s">
@@ -3350,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="15" t="e">
-        <f>F53/F179*100</f>
+        <f>F53/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H53" s="21">
@@ -3367,19 +3383,19 @@
       </c>
     </row>
     <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="34"/>
-      <c r="C54" s="31"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="38"/>
       <c r="D54" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F54" s="15">
         <v>0</v>
       </c>
       <c r="G54" s="15" t="e">
-        <f>F54/F179*100</f>
+        <f>F54/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H54" s="21">
@@ -3396,19 +3412,19 @@
       </c>
     </row>
     <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="34"/>
-      <c r="C55" s="32"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="39"/>
       <c r="D55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F55" s="15">
         <v>0</v>
       </c>
       <c r="G55" s="15" t="e">
-        <f>F55/F179*100</f>
+        <f>F55/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H55" s="21">
@@ -3425,9 +3441,9 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="34"/>
-      <c r="C56" s="30" t="s">
-        <v>211</v>
+      <c r="B56" s="44"/>
+      <c r="C56" s="37" t="s">
+        <v>209</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10" t="s">
@@ -3437,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="15" t="e">
-        <f>F56/F179*100</f>
+        <f>F56/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H56" s="21">
@@ -3454,19 +3470,19 @@
       </c>
     </row>
     <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="34"/>
-      <c r="C57" s="31"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="38"/>
       <c r="D57" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F57" s="15">
         <v>0</v>
       </c>
       <c r="G57" s="15" t="e">
-        <f>F57/F179*100</f>
+        <f>F57/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H57" s="21">
@@ -3483,19 +3499,19 @@
       </c>
     </row>
     <row r="58" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="34"/>
-      <c r="C58" s="31"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="38"/>
       <c r="D58" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F58" s="15">
         <v>0</v>
       </c>
       <c r="G58" s="15" t="e">
-        <f>F58/F179*100</f>
+        <f>F58/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H58" s="21">
@@ -3512,19 +3528,19 @@
       </c>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="34"/>
-      <c r="C59" s="31"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="38"/>
       <c r="D59" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="15">
         <v>0</v>
       </c>
       <c r="G59" s="15" t="e">
-        <f>F59/F179*100</f>
+        <f>F59/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H59" s="21">
@@ -3541,19 +3557,19 @@
       </c>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="34"/>
-      <c r="C60" s="31"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="38"/>
       <c r="D60" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F60" s="15">
         <v>0</v>
       </c>
       <c r="G60" s="15" t="e">
-        <f>F60/F179*100</f>
+        <f>F60/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H60" s="21">
@@ -3570,19 +3586,19 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="34"/>
-      <c r="C61" s="32"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="39"/>
       <c r="D61" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F61" s="15">
         <v>0</v>
       </c>
       <c r="G61" s="15" t="e">
-        <f>F61/F179*100</f>
+        <f>F61/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="21">
@@ -3599,9 +3615,9 @@
       </c>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="34"/>
-      <c r="C62" s="30" t="s">
-        <v>215</v>
+      <c r="B62" s="44"/>
+      <c r="C62" s="37" t="s">
+        <v>213</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="10" t="s">
@@ -3611,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="15" t="e">
-        <f>F62/F179*100</f>
+        <f>F62/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H62" s="21">
@@ -3628,19 +3644,19 @@
       </c>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="34"/>
-      <c r="C63" s="31"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F63" s="15">
         <v>0</v>
       </c>
       <c r="G63" s="15" t="e">
-        <f>F63/F179*100</f>
+        <f>F63/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="21">
@@ -3657,19 +3673,19 @@
       </c>
     </row>
     <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="34"/>
-      <c r="C64" s="32"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="39"/>
       <c r="D64" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F64" s="15">
         <v>0</v>
       </c>
       <c r="G64" s="15" t="e">
-        <f>F64/F179*100</f>
+        <f>F64/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H64" s="21">
@@ -3686,19 +3702,19 @@
       </c>
     </row>
     <row r="65" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="34"/>
-      <c r="C65" s="30" t="s">
-        <v>217</v>
+      <c r="B65" s="44"/>
+      <c r="C65" s="37" t="s">
+        <v>215</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F65" s="15">
         <v>0</v>
       </c>
       <c r="G65" s="15" t="e">
-        <f>F65/F179*100</f>
+        <f>F65/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H65" s="21">
@@ -3715,19 +3731,19 @@
       </c>
     </row>
     <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="34"/>
-      <c r="C66" s="31"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="38"/>
       <c r="D66" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F66" s="15">
         <v>0</v>
       </c>
       <c r="G66" s="15" t="e">
-        <f>F66/F179*100</f>
+        <f>F66/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H66" s="21">
@@ -3744,19 +3760,19 @@
       </c>
     </row>
     <row r="67" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="34"/>
-      <c r="C67" s="31"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="38"/>
       <c r="D67" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F67" s="15">
         <v>0</v>
       </c>
       <c r="G67" s="15" t="e">
-        <f>F67/F179*100</f>
+        <f>F67/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H67" s="21">
@@ -3773,19 +3789,19 @@
       </c>
     </row>
     <row r="68" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="34"/>
-      <c r="C68" s="32"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="39"/>
       <c r="D68" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F68" s="15">
         <v>0</v>
       </c>
       <c r="G68" s="15" t="e">
-        <f>F68/F179*100</f>
+        <f>F68/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H68" s="21">
@@ -3802,19 +3818,19 @@
       </c>
     </row>
     <row r="69" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="34"/>
-      <c r="C69" s="30" t="s">
-        <v>220</v>
+      <c r="B69" s="44"/>
+      <c r="C69" s="37" t="s">
+        <v>218</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F69" s="15">
         <v>0</v>
       </c>
       <c r="G69" s="15" t="e">
-        <f>F69/F179*100</f>
+        <f>F69/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H69" s="21">
@@ -3831,19 +3847,19 @@
       </c>
     </row>
     <row r="70" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="34"/>
-      <c r="C70" s="31"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="38"/>
       <c r="D70" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F70" s="15">
         <v>0</v>
       </c>
       <c r="G70" s="15" t="e">
-        <f>F70/F179*100</f>
+        <f>F70/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H70" s="21">
@@ -3860,19 +3876,19 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="34"/>
-      <c r="C71" s="31"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="38"/>
       <c r="D71" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F71" s="15">
         <v>0</v>
       </c>
       <c r="G71" s="15" t="e">
-        <f>F71/F179*100</f>
+        <f>F71/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H71" s="21">
@@ -3889,48 +3905,48 @@
       </c>
     </row>
     <row r="72" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="34"/>
-      <c r="C72" s="31"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="38"/>
       <c r="D72" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F72" s="15">
+        <v>0</v>
+      </c>
+      <c r="G72" s="15" t="e">
+        <f>F72/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H72" s="21">
+        <f t="shared" ref="H72:H132" si="10">B72</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="21">
+        <f t="shared" ref="I72:I132" si="11">C72</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="21" t="str">
+        <f t="shared" ref="J72:J132" si="12">D72</f>
+        <v>080703</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="45"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F72" s="15">
-        <v>0</v>
-      </c>
-      <c r="G72" s="15" t="e">
-        <f>F72/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H72" s="21">
-        <f t="shared" ref="H72:H133" si="10">B72</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="21">
-        <f t="shared" ref="I72:I133" si="11">C72</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="21" t="str">
-        <f t="shared" ref="J72:J133" si="12">D72</f>
-        <v>080703</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="35"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F73" s="15">
         <v>0</v>
       </c>
       <c r="G73" s="15" t="e">
-        <f>F73/F179*100</f>
+        <f>F73/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H73" s="21">
@@ -3947,19 +3963,19 @@
       </c>
     </row>
     <row r="74" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="33" t="s">
-        <v>162</v>
+      <c r="B74" s="43" t="s">
+        <v>160</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F74" s="19">
         <v>0</v>
       </c>
       <c r="G74" s="19" t="e">
-        <f>F74/F179*100</f>
+        <f>F74/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H74" s="21" t="str">
@@ -3976,9 +3992,9 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="34"/>
-      <c r="C75" s="31" t="s">
-        <v>224</v>
+      <c r="B75" s="44"/>
+      <c r="C75" s="38" t="s">
+        <v>222</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="10" t="s">
@@ -3988,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="15" t="e">
-        <f>F75/F179*100</f>
+        <f>F75/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H75" s="21">
@@ -4005,19 +4021,19 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="34"/>
-      <c r="C76" s="31"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="38"/>
       <c r="D76" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F76" s="15">
         <v>0</v>
       </c>
       <c r="G76" s="15" t="e">
-        <f>F76/F179*100</f>
+        <f>F76/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H76" s="21">
@@ -4034,19 +4050,19 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="34"/>
-      <c r="C77" s="31"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="38"/>
       <c r="D77" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F77" s="15">
         <v>0</v>
       </c>
       <c r="G77" s="15" t="e">
-        <f>F77/F179*100</f>
+        <f>F77/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H77" s="21">
@@ -4063,19 +4079,19 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="34"/>
-      <c r="C78" s="31"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="38"/>
       <c r="D78" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F78" s="15">
         <v>0</v>
       </c>
       <c r="G78" s="15" t="e">
-        <f>F78/F179*100</f>
+        <f>F78/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H78" s="21">
@@ -4092,19 +4108,19 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="34"/>
-      <c r="C79" s="31"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="38"/>
       <c r="D79" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F79" s="15">
         <v>0</v>
       </c>
       <c r="G79" s="15" t="e">
-        <f>F79/F179*100</f>
+        <f>F79/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H79" s="21">
@@ -4121,19 +4137,19 @@
       </c>
     </row>
     <row r="80" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="34"/>
-      <c r="C80" s="32"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="39"/>
       <c r="D80" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F80" s="15">
         <v>0</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f>F80/F179*100</f>
+        <f>F80/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H80" s="21">
@@ -4150,9 +4166,9 @@
       </c>
     </row>
     <row r="81" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="34"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="10" t="s">
@@ -4162,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="15" t="e">
-        <f>F81/F179*100</f>
+        <f>F81/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H81" s="21">
@@ -4179,19 +4195,19 @@
       </c>
     </row>
     <row r="82" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="34"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F82" s="15">
         <v>0</v>
       </c>
       <c r="G82" s="15" t="e">
-        <f>F82/F179*100</f>
+        <f>F82/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H82" s="21">
@@ -4208,9 +4224,9 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="35"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="10" t="s">
@@ -4220,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="15" t="e">
-        <f>F83/F179*100</f>
+        <f>F83/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H83" s="21">
@@ -4237,19 +4253,19 @@
       </c>
     </row>
     <row r="84" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="33" t="s">
-        <v>163</v>
+      <c r="B84" s="43" t="s">
+        <v>161</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F84" s="19">
         <v>0</v>
       </c>
       <c r="G84" s="19" t="e">
-        <f>F84/F179*100</f>
+        <f>F84/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H84" s="21" t="str">
@@ -4266,9 +4282,9 @@
       </c>
     </row>
     <row r="85" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="34"/>
-      <c r="C85" s="30" t="s">
-        <v>232</v>
+      <c r="B85" s="44"/>
+      <c r="C85" s="37" t="s">
+        <v>230</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="10" t="s">
@@ -4278,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="15" t="e">
-        <f>F85/F179*100</f>
+        <f>F85/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H85" s="21">
@@ -4295,19 +4311,19 @@
       </c>
     </row>
     <row r="86" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="34"/>
-      <c r="C86" s="31"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="38"/>
       <c r="D86" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F86" s="15">
         <v>0</v>
       </c>
       <c r="G86" s="15" t="e">
-        <f>F86/F179*100</f>
+        <f>F86/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H86" s="21">
@@ -4324,19 +4340,19 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="34"/>
-      <c r="C87" s="31"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="38"/>
       <c r="D87" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F87" s="15">
         <v>0</v>
       </c>
       <c r="G87" s="15" t="e">
-        <f>F87/F179*100</f>
+        <f>F87/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H87" s="21">
@@ -4353,19 +4369,19 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="34"/>
-      <c r="C88" s="32"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="39"/>
       <c r="D88" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F88" s="15">
         <v>0</v>
       </c>
       <c r="G88" s="15" t="e">
-        <f>F88/F179*100</f>
+        <f>F88/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H88" s="21">
@@ -4382,9 +4398,9 @@
       </c>
     </row>
     <row r="89" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="34"/>
+      <c r="B89" s="44"/>
       <c r="C89" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D89" s="10"/>
       <c r="E89" s="10" t="s">
@@ -4394,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="15" t="e">
-        <f>F89/F179*100</f>
+        <f>F89/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H89" s="21">
@@ -4411,19 +4427,19 @@
       </c>
     </row>
     <row r="90" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="35"/>
+      <c r="B90" s="45"/>
       <c r="C90" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D90" s="10"/>
       <c r="E90" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F90" s="15">
         <v>0</v>
       </c>
       <c r="G90" s="15" t="e">
-        <f>F90/F179*100</f>
+        <f>F90/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H90" s="21">
@@ -4440,19 +4456,19 @@
       </c>
     </row>
     <row r="91" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="27" t="s">
-        <v>164</v>
+      <c r="B91" s="40" t="s">
+        <v>162</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F91" s="19">
         <v>0</v>
       </c>
       <c r="G91" s="19" t="e">
-        <f>F91/F179*100</f>
+        <f>F91/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H91" s="21" t="str">
@@ -4469,9 +4485,9 @@
       </c>
     </row>
     <row r="92" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="28"/>
-      <c r="C92" s="30" t="s">
-        <v>238</v>
+      <c r="B92" s="41"/>
+      <c r="C92" s="37" t="s">
+        <v>236</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="10" t="s">
@@ -4481,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="15" t="e">
-        <f>F92/F179*100</f>
+        <f>F92/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H92" s="21">
@@ -4498,19 +4514,19 @@
       </c>
     </row>
     <row r="93" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="28"/>
-      <c r="C93" s="31"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F93" s="15">
         <v>0</v>
       </c>
       <c r="G93" s="15" t="e">
-        <f>F93/F179*100</f>
+        <f>F93/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H93" s="21">
@@ -4527,19 +4543,19 @@
       </c>
     </row>
     <row r="94" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="28"/>
-      <c r="C94" s="31"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="38"/>
       <c r="D94" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F94" s="15">
         <v>0</v>
       </c>
       <c r="G94" s="15" t="e">
-        <f>F94/F179*100</f>
+        <f>F94/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H94" s="21">
@@ -4556,19 +4572,19 @@
       </c>
     </row>
     <row r="95" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="28"/>
-      <c r="C95" s="32"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="39"/>
       <c r="D95" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F95" s="15">
         <v>0</v>
       </c>
       <c r="G95" s="15" t="e">
-        <f>F95/F179*100</f>
+        <f>F95/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H95" s="21">
@@ -4585,9 +4601,9 @@
       </c>
     </row>
     <row r="96" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="29"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D96" s="10"/>
       <c r="E96" s="10" t="s">
@@ -4597,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="15" t="e">
-        <f>F96/F179*100</f>
+        <f>F96/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H96" s="21">
@@ -4614,19 +4630,19 @@
       </c>
     </row>
     <row r="97" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="27" t="s">
-        <v>165</v>
+      <c r="B97" s="40" t="s">
+        <v>163</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F97" s="19">
         <v>0</v>
       </c>
       <c r="G97" s="19" t="e">
-        <f>F97/F179*100</f>
+        <f>F97/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H97" s="21" t="str">
@@ -4643,9 +4659,9 @@
       </c>
     </row>
     <row r="98" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="28"/>
+      <c r="B98" s="41"/>
       <c r="C98" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="10" t="s">
@@ -4655,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="15" t="e">
-        <f>F98/F179*100</f>
+        <f>F98/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H98" s="21">
@@ -4672,9 +4688,9 @@
       </c>
     </row>
     <row r="99" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="28"/>
+      <c r="B99" s="41"/>
       <c r="C99" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D99" s="10"/>
       <c r="E99" s="10" t="s">
@@ -4684,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="15" t="e">
-        <f>F99/F179*100</f>
+        <f>F99/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H99" s="21">
@@ -4701,19 +4717,19 @@
       </c>
     </row>
     <row r="100" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="28"/>
+      <c r="B100" s="41"/>
       <c r="C100" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D100" s="10"/>
       <c r="E100" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F100" s="15">
         <v>0</v>
       </c>
       <c r="G100" s="15" t="e">
-        <f>F100/F179*100</f>
+        <f>F100/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H100" s="21">
@@ -4730,19 +4746,19 @@
       </c>
     </row>
     <row r="101" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="28"/>
+      <c r="B101" s="41"/>
       <c r="C101" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D101" s="10"/>
       <c r="E101" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F101" s="15">
         <v>0</v>
       </c>
       <c r="G101" s="15" t="e">
-        <f>F101/F179*100</f>
+        <f>F101/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H101" s="21">
@@ -4759,19 +4775,19 @@
       </c>
     </row>
     <row r="102" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="28"/>
+      <c r="B102" s="41"/>
       <c r="C102" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D102" s="10"/>
       <c r="E102" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F102" s="15">
         <v>0</v>
       </c>
       <c r="G102" s="15" t="e">
-        <f>F102/F179*100</f>
+        <f>F102/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H102" s="21">
@@ -4788,19 +4804,19 @@
       </c>
     </row>
     <row r="103" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="28"/>
+      <c r="B103" s="41"/>
       <c r="C103" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D103" s="10"/>
       <c r="E103" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F103" s="15">
         <v>0</v>
       </c>
       <c r="G103" s="15" t="e">
-        <f>F103/F179*100</f>
+        <f>F103/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H103" s="21">
@@ -4817,19 +4833,19 @@
       </c>
     </row>
     <row r="104" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="28"/>
+      <c r="B104" s="41"/>
       <c r="C104" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D104" s="10"/>
       <c r="E104" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F104" s="15">
         <v>0</v>
       </c>
       <c r="G104" s="15" t="e">
-        <f>F104/F179*100</f>
+        <f>F104/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H104" s="21">
@@ -4846,9 +4862,9 @@
       </c>
     </row>
     <row r="105" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="28"/>
-      <c r="C105" s="30" t="s">
-        <v>250</v>
+      <c r="B105" s="41"/>
+      <c r="C105" s="37" t="s">
+        <v>248</v>
       </c>
       <c r="D105" s="10"/>
       <c r="E105" s="10" t="s">
@@ -4858,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="G105" s="15" t="e">
-        <f>F105/F179*100</f>
+        <f>F105/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H105" s="21">
@@ -4875,19 +4891,19 @@
       </c>
     </row>
     <row r="106" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="28"/>
-      <c r="C106" s="31"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="38"/>
       <c r="D106" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F106" s="15">
         <v>0</v>
       </c>
       <c r="G106" s="15" t="e">
-        <f>F106/F179*100</f>
+        <f>F106/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H106" s="21">
@@ -4904,19 +4920,19 @@
       </c>
     </row>
     <row r="107" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="28"/>
-      <c r="C107" s="31"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="38"/>
       <c r="D107" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F107" s="15">
         <v>0</v>
       </c>
       <c r="G107" s="15" t="e">
-        <f>F107/F179*100</f>
+        <f>F107/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H107" s="21">
@@ -4933,19 +4949,19 @@
       </c>
     </row>
     <row r="108" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="28"/>
-      <c r="C108" s="32"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="39"/>
       <c r="D108" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F108" s="15">
         <v>0</v>
       </c>
       <c r="G108" s="15" t="e">
-        <f>F108/F179*100</f>
+        <f>F108/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H108" s="21">
@@ -4962,9 +4978,9 @@
       </c>
     </row>
     <row r="109" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="29"/>
+      <c r="B109" s="42"/>
       <c r="C109" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D109" s="10"/>
       <c r="E109" s="10" t="s">
@@ -4974,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="G109" s="15" t="e">
-        <f>F109/F179*100</f>
+        <f>F109/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H109" s="21">
@@ -4991,19 +5007,19 @@
       </c>
     </row>
     <row r="110" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="27" t="s">
-        <v>166</v>
+      <c r="B110" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F110" s="19">
         <v>0</v>
       </c>
       <c r="G110" s="19" t="e">
-        <f>F110/F179*100</f>
+        <f>F110/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H110" s="21" t="str">
@@ -5020,9 +5036,9 @@
       </c>
     </row>
     <row r="111" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="28"/>
+      <c r="B111" s="41"/>
       <c r="C111" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D111" s="10"/>
       <c r="E111" s="10" t="s">
@@ -5032,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="G111" s="15" t="e">
-        <f>F111/F179*100</f>
+        <f>F111/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H111" s="21">
@@ -5049,9 +5065,9 @@
       </c>
     </row>
     <row r="112" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="28"/>
+      <c r="B112" s="41"/>
       <c r="C112" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D112" s="10"/>
       <c r="E112" s="10" t="s">
@@ -5061,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="G112" s="15" t="e">
-        <f>F112/F179*100</f>
+        <f>F112/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H112" s="21">
@@ -5078,9 +5094,9 @@
       </c>
     </row>
     <row r="113" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="28"/>
+      <c r="B113" s="41"/>
       <c r="C113" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D113" s="10"/>
       <c r="E113" s="10" t="s">
@@ -5090,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="G113" s="15" t="e">
-        <f>F113/F179*100</f>
+        <f>F113/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H113" s="21">
@@ -5107,9 +5123,9 @@
       </c>
     </row>
     <row r="114" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="28"/>
+      <c r="B114" s="41"/>
       <c r="C114" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D114" s="10"/>
       <c r="E114" s="10" t="s">
@@ -5119,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="15" t="e">
-        <f>F114/F179*100</f>
+        <f>F114/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H114" s="21">
@@ -5136,19 +5152,19 @@
       </c>
     </row>
     <row r="115" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="28"/>
+      <c r="B115" s="41"/>
       <c r="C115" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D115" s="10"/>
       <c r="E115" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F115" s="15">
         <v>0</v>
       </c>
       <c r="G115" s="15" t="e">
-        <f>F115/F179*100</f>
+        <f>F115/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H115" s="21">
@@ -5165,19 +5181,19 @@
       </c>
     </row>
     <row r="116" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="28"/>
+      <c r="B116" s="41"/>
       <c r="C116" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D116" s="10"/>
       <c r="E116" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F116" s="15">
         <v>0</v>
       </c>
       <c r="G116" s="15" t="e">
-        <f>F116/F179*100</f>
+        <f>F116/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H116" s="21">
@@ -5194,19 +5210,19 @@
       </c>
     </row>
     <row r="117" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="28"/>
+      <c r="B117" s="41"/>
       <c r="C117" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D117" s="10"/>
       <c r="E117" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F117" s="15">
         <v>0</v>
       </c>
       <c r="G117" s="15" t="e">
-        <f>F117/F179*100</f>
+        <f>F117/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H117" s="21">
@@ -5223,19 +5239,19 @@
       </c>
     </row>
     <row r="118" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="28"/>
+      <c r="B118" s="41"/>
       <c r="C118" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D118" s="10"/>
       <c r="E118" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F118" s="15">
         <v>0</v>
       </c>
       <c r="G118" s="15" t="e">
-        <f>F118/F179*100</f>
+        <f>F118/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H118" s="21">
@@ -5252,9 +5268,9 @@
       </c>
     </row>
     <row r="119" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="28"/>
+      <c r="B119" s="41"/>
       <c r="C119" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D119" s="10"/>
       <c r="E119" s="10" t="s">
@@ -5264,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="15" t="e">
-        <f>F119/F179*100</f>
+        <f>F119/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H119" s="21">
@@ -5281,19 +5297,19 @@
       </c>
     </row>
     <row r="120" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="28"/>
+      <c r="B120" s="41"/>
       <c r="C120" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D120" s="10"/>
       <c r="E120" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F120" s="15">
         <v>0</v>
       </c>
       <c r="G120" s="15" t="e">
-        <f>F120/F179*100</f>
+        <f>F120/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H120" s="21">
@@ -5310,19 +5326,19 @@
       </c>
     </row>
     <row r="121" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="28"/>
+      <c r="B121" s="41"/>
       <c r="C121" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D121" s="10"/>
       <c r="E121" s="10" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="F121" s="15">
         <v>0</v>
       </c>
       <c r="G121" s="15" t="e">
-        <f>F121/F179*100</f>
+        <f>F121/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H121" s="21">
@@ -5339,19 +5355,19 @@
       </c>
     </row>
     <row r="122" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="28"/>
+      <c r="B122" s="42"/>
       <c r="C122" s="11" t="s">
-        <v>268</v>
+        <v>349</v>
       </c>
       <c r="D122" s="10"/>
       <c r="E122" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F122" s="15">
         <v>0</v>
       </c>
       <c r="G122" s="15" t="e">
-        <f>F122/F179*100</f>
+        <f>F122/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H122" s="21">
@@ -5368,28 +5384,28 @@
       </c>
     </row>
     <row r="123" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="29"/>
-      <c r="C123" s="11">
-        <v>1313</v>
-      </c>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F123" s="15">
-        <v>0</v>
-      </c>
-      <c r="G123" s="15" t="e">
-        <f>F123/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H123" s="21">
+      <c r="B123" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F123" s="19">
+        <v>0</v>
+      </c>
+      <c r="G123" s="19" t="e">
+        <f>F123/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H123" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I123" s="21">
         <f t="shared" si="11"/>
-        <v>1313</v>
+        <v>0</v>
       </c>
       <c r="J123" s="21">
         <f t="shared" si="12"/>
@@ -5397,28 +5413,28 @@
       </c>
     </row>
     <row r="124" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C124" s="5"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F124" s="19">
-        <v>0</v>
-      </c>
-      <c r="G124" s="19" t="e">
-        <f>F124/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H124" s="21" t="str">
+      <c r="B124" s="41"/>
+      <c r="C124" s="11">
+        <v>1401</v>
+      </c>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F124" s="15">
+        <v>0</v>
+      </c>
+      <c r="G124" s="15" t="e">
+        <f>F124/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H124" s="21">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I124" s="21">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="J124" s="21">
         <f t="shared" si="12"/>
@@ -5426,57 +5442,57 @@
       </c>
     </row>
     <row r="125" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="28"/>
-      <c r="C125" s="11">
-        <v>1401</v>
+      <c r="B125" s="41"/>
+      <c r="C125" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D125" s="10"/>
       <c r="E125" s="10" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="F125" s="15">
         <v>0</v>
       </c>
       <c r="G125" s="15" t="e">
-        <f>F125/F179*100</f>
+        <f>F125/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H125" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I125" s="21">
+      <c r="I125" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="J125" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B126" s="28"/>
-      <c r="C126" s="11" t="s">
-        <v>133</v>
+    <row r="126" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="42"/>
+      <c r="C126" s="11">
+        <v>1403</v>
       </c>
       <c r="D126" s="10"/>
       <c r="E126" s="10" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="F126" s="15">
         <v>0</v>
       </c>
       <c r="G126" s="15" t="e">
-        <f>F126/F179*100</f>
+        <f>F126/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H126" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I126" s="21" t="str">
+      <c r="I126" s="21">
         <f t="shared" si="11"/>
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="J126" s="21">
         <f t="shared" si="12"/>
@@ -5484,28 +5500,28 @@
       </c>
     </row>
     <row r="127" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="29"/>
-      <c r="C127" s="11">
-        <v>1403</v>
-      </c>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F127" s="15">
-        <v>0</v>
-      </c>
-      <c r="G127" s="15" t="e">
-        <f>F127/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H127" s="21">
+      <c r="B127" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F127" s="19">
+        <v>0</v>
+      </c>
+      <c r="G127" s="19" t="e">
+        <f>F127/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H127" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I127" s="21">
         <f t="shared" si="11"/>
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="J127" s="21">
         <f t="shared" si="12"/>
@@ -5513,28 +5529,28 @@
       </c>
     </row>
     <row r="128" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F128" s="19">
-        <v>0</v>
-      </c>
-      <c r="G128" s="19" t="e">
-        <f>F128/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H128" s="21" t="str">
+      <c r="B128" s="41"/>
+      <c r="C128" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F128" s="15">
+        <v>0</v>
+      </c>
+      <c r="G128" s="15" t="e">
+        <f>F128/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H128" s="21">
         <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="I128" s="21">
+        <v>0</v>
+      </c>
+      <c r="I128" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1501</v>
       </c>
       <c r="J128" s="21">
         <f t="shared" si="12"/>
@@ -5542,19 +5558,19 @@
       </c>
     </row>
     <row r="129" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="28"/>
+      <c r="B129" s="41"/>
       <c r="C129" s="11" t="s">
-        <v>269</v>
+        <v>133</v>
       </c>
       <c r="D129" s="10"/>
       <c r="E129" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F129" s="15">
         <v>0</v>
       </c>
       <c r="G129" s="15" t="e">
-        <f>F129/F179*100</f>
+        <f>F129/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H129" s="21">
@@ -5563,7 +5579,7 @@
       </c>
       <c r="I129" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="J129" s="21">
         <f t="shared" si="12"/>
@@ -5571,19 +5587,19 @@
       </c>
     </row>
     <row r="130" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="28"/>
+      <c r="B130" s="41"/>
       <c r="C130" s="11" t="s">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="D130" s="10"/>
       <c r="E130" s="10" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="F130" s="15">
         <v>0</v>
       </c>
       <c r="G130" s="15" t="e">
-        <f>F130/F179*100</f>
+        <f>F130/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H130" s="21">
@@ -5592,7 +5608,7 @@
       </c>
       <c r="I130" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="J130" s="21">
         <f t="shared" si="12"/>
@@ -5600,19 +5616,19 @@
       </c>
     </row>
     <row r="131" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="28"/>
+      <c r="B131" s="41"/>
       <c r="C131" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D131" s="10"/>
       <c r="E131" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F131" s="15">
         <v>0</v>
       </c>
       <c r="G131" s="15" t="e">
-        <f>F131/F179*100</f>
+        <f>F131/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H131" s="21">
@@ -5621,7 +5637,7 @@
       </c>
       <c r="I131" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="J131" s="21">
         <f t="shared" si="12"/>
@@ -5629,19 +5645,19 @@
       </c>
     </row>
     <row r="132" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="28"/>
+      <c r="B132" s="41"/>
       <c r="C132" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D132" s="10"/>
       <c r="E132" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F132" s="15">
         <v>0</v>
       </c>
       <c r="G132" s="15" t="e">
-        <f>F132/F179*100</f>
+        <f>F132/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H132" s="21">
@@ -5650,7 +5666,7 @@
       </c>
       <c r="I132" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="J132" s="21">
         <f t="shared" si="12"/>
@@ -5658,111 +5674,111 @@
       </c>
     </row>
     <row r="133" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B133" s="28"/>
+      <c r="B133" s="41"/>
       <c r="C133" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D133" s="10"/>
       <c r="E133" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F133" s="15">
         <v>0</v>
       </c>
       <c r="G133" s="15" t="e">
-        <f>F133/F179*100</f>
+        <f>F133/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H133" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="H133:H180" si="13">B133</f>
         <v>0</v>
       </c>
       <c r="I133" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>1505</v>
+        <f t="shared" ref="I133:I180" si="14">C133</f>
+        <v>1506</v>
       </c>
       <c r="J133" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J133:J180" si="15">D133</f>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="28"/>
+      <c r="B134" s="42"/>
       <c r="C134" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D134" s="10"/>
       <c r="E134" s="10" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="F134" s="15">
         <v>0</v>
       </c>
       <c r="G134" s="15" t="e">
-        <f>F134/F179*100</f>
+        <f>F134/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H134" s="21">
-        <f t="shared" ref="H134:H179" si="13">B134</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I134" s="21" t="str">
-        <f t="shared" ref="I134:I179" si="14">C134</f>
-        <v>1506</v>
-      </c>
-      <c r="J134" s="21">
-        <f t="shared" ref="J134:J179" si="15">D134</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="29"/>
-      <c r="C135" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F135" s="15">
-        <v>0</v>
-      </c>
-      <c r="G135" s="15" t="e">
-        <f>F135/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H135" s="21">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I135" s="21" t="str">
         <f t="shared" si="14"/>
         <v>1507</v>
       </c>
+      <c r="J134" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F135" s="19">
+        <v>0</v>
+      </c>
+      <c r="G135" s="19" t="e">
+        <f>F135/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H135" s="21" t="str">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="I135" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="J135" s="21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="14" t="s">
-        <v>169</v>
+      <c r="B136" s="40" t="s">
+        <v>168</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="F136" s="19">
         <v>0</v>
       </c>
       <c r="G136" s="19" t="e">
-        <f>F136/F179*100</f>
+        <f>F136/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H136" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I136" s="21">
         <f t="shared" si="14"/>
@@ -5774,28 +5790,28 @@
       </c>
     </row>
     <row r="137" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F137" s="19">
-        <v>0</v>
-      </c>
-      <c r="G137" s="19" t="e">
-        <f>F137/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H137" s="21" t="str">
+      <c r="B137" s="41"/>
+      <c r="C137" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F137" s="15">
+        <v>0</v>
+      </c>
+      <c r="G137" s="15" t="e">
+        <f>F137/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H137" s="21">
         <f t="shared" si="13"/>
-        <v>17</v>
-      </c>
-      <c r="I137" s="21">
+        <v>0</v>
+      </c>
+      <c r="I137" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1701</v>
       </c>
       <c r="J137" s="21">
         <f t="shared" si="15"/>
@@ -5803,19 +5819,19 @@
       </c>
     </row>
     <row r="138" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B138" s="28"/>
+      <c r="B138" s="41"/>
       <c r="C138" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D138" s="10"/>
       <c r="E138" s="10" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="F138" s="15">
         <v>0</v>
       </c>
       <c r="G138" s="15" t="e">
-        <f>F138/F179*100</f>
+        <f>F138/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H138" s="21">
@@ -5824,7 +5840,7 @@
       </c>
       <c r="I138" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="J138" s="21">
         <f t="shared" si="15"/>
@@ -5832,19 +5848,19 @@
       </c>
     </row>
     <row r="139" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="28"/>
+      <c r="B139" s="41"/>
       <c r="C139" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D139" s="10"/>
       <c r="E139" s="10" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="F139" s="15">
         <v>0</v>
       </c>
       <c r="G139" s="15" t="e">
-        <f>F139/F179*100</f>
+        <f>F139/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H139" s="21">
@@ -5853,7 +5869,7 @@
       </c>
       <c r="I139" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="J139" s="21">
         <f t="shared" si="15"/>
@@ -5861,19 +5877,19 @@
       </c>
     </row>
     <row r="140" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="28"/>
+      <c r="B140" s="41"/>
       <c r="C140" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D140" s="10"/>
       <c r="E140" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F140" s="15">
         <v>0</v>
       </c>
       <c r="G140" s="15" t="e">
-        <f>F140/F179*100</f>
+        <f>F140/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H140" s="21">
@@ -5882,7 +5898,7 @@
       </c>
       <c r="I140" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="J140" s="21">
         <f t="shared" si="15"/>
@@ -5890,19 +5906,19 @@
       </c>
     </row>
     <row r="141" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="28"/>
+      <c r="B141" s="41"/>
       <c r="C141" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D141" s="10"/>
       <c r="E141" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F141" s="15">
         <v>0</v>
       </c>
       <c r="G141" s="15" t="e">
-        <f>F141/F179*100</f>
+        <f>F141/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H141" s="21">
@@ -5911,7 +5927,7 @@
       </c>
       <c r="I141" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="J141" s="21">
         <f t="shared" si="15"/>
@@ -5919,19 +5935,19 @@
       </c>
     </row>
     <row r="142" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="28"/>
+      <c r="B142" s="42"/>
       <c r="C142" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D142" s="10"/>
       <c r="E142" s="10" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="F142" s="15">
         <v>0</v>
       </c>
       <c r="G142" s="15" t="e">
-        <f>F142/F179*100</f>
+        <f>F142/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H142" s="21">
@@ -5940,7 +5956,7 @@
       </c>
       <c r="I142" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="J142" s="21">
         <f t="shared" si="15"/>
@@ -5948,28 +5964,28 @@
       </c>
     </row>
     <row r="143" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="29"/>
-      <c r="C143" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F143" s="15">
-        <v>0</v>
-      </c>
-      <c r="G143" s="15" t="e">
-        <f>F143/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H143" s="21">
+      <c r="B143" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="C143" s="23"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="F143" s="25">
+        <v>0</v>
+      </c>
+      <c r="G143" s="25" t="e">
+        <f>F143/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H143" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I143" s="21" t="str">
+        <v>18</v>
+      </c>
+      <c r="I143" s="21">
         <f t="shared" si="14"/>
-        <v>1706</v>
+        <v>0</v>
       </c>
       <c r="J143" s="21">
         <f t="shared" si="15"/>
@@ -5977,28 +5993,28 @@
       </c>
     </row>
     <row r="144" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B144" s="27" t="s">
+      <c r="B144" s="41"/>
+      <c r="C144" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C144" s="23"/>
-      <c r="D144" s="24"/>
-      <c r="E144" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="F144" s="25">
-        <v>0</v>
-      </c>
-      <c r="G144" s="25" t="e">
-        <f>F144/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H144" s="21" t="str">
+      <c r="F144" s="15">
+        <v>0</v>
+      </c>
+      <c r="G144" s="15" t="e">
+        <f>F144/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H144" s="21">
         <f t="shared" si="13"/>
-        <v>18</v>
-      </c>
-      <c r="I144" s="21">
+        <v>0</v>
+      </c>
+      <c r="I144" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1801</v>
       </c>
       <c r="J144" s="21">
         <f t="shared" si="15"/>
@@ -6006,19 +6022,19 @@
       </c>
     </row>
     <row r="145" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B145" s="28"/>
+      <c r="B145" s="41"/>
       <c r="C145" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D145" s="10"/>
       <c r="E145" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F145" s="15">
         <v>0</v>
       </c>
       <c r="G145" s="15" t="e">
-        <f>F145/F179*100</f>
+        <f>F145/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H145" s="21">
@@ -6027,7 +6043,7 @@
       </c>
       <c r="I145" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="J145" s="21">
         <f t="shared" si="15"/>
@@ -6035,13 +6051,13 @@
       </c>
     </row>
     <row r="146" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="28"/>
+      <c r="B146" s="41"/>
       <c r="C146" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D146" s="10"/>
       <c r="E146" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F146" s="15">
         <v>0</v>
@@ -6051,99 +6067,99 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H146" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="H146" si="16">B146</f>
         <v>0</v>
       </c>
       <c r="I146" s="21" t="str">
-        <f t="shared" si="14"/>
-        <v>1802</v>
+        <f t="shared" ref="I146" si="17">C146</f>
+        <v>1803</v>
       </c>
       <c r="J146" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="J146" si="18">D146</f>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="28"/>
+      <c r="B147" s="42"/>
       <c r="C147" s="11" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="10" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="F147" s="15">
         <v>0</v>
       </c>
       <c r="G147" s="15" t="e">
-        <f>F147/F178*100</f>
+        <f>F147/F179*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H147" s="21">
-        <f t="shared" ref="H147" si="16">B147</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I147" s="21" t="str">
-        <f t="shared" ref="I147" si="17">C147</f>
-        <v>1803</v>
-      </c>
-      <c r="J147" s="21">
-        <f t="shared" ref="J147" si="18">D147</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B148" s="29"/>
-      <c r="C148" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="F148" s="15">
-        <v>0</v>
-      </c>
-      <c r="G148" s="15" t="e">
-        <f>F148/F178*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H148" s="21">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I148" s="21" t="str">
         <f t="shared" si="14"/>
         <v>1804</v>
       </c>
+      <c r="J147" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B148" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="C148" s="23"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="F148" s="25">
+        <v>0</v>
+      </c>
+      <c r="G148" s="25" t="e">
+        <f>F148/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H148" s="21" t="str">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="I148" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="J148" s="21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B149" s="27" t="s">
+      <c r="B149" s="41"/>
+      <c r="C149" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C149" s="23"/>
-      <c r="D149" s="24"/>
-      <c r="E149" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="F149" s="25">
-        <v>0</v>
-      </c>
-      <c r="G149" s="25" t="e">
-        <f>F149/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H149" s="21" t="str">
+      <c r="F149" s="15">
+        <v>0</v>
+      </c>
+      <c r="G149" s="15" t="e">
+        <f>F149/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H149" s="21">
         <f t="shared" si="13"/>
-        <v>19</v>
-      </c>
-      <c r="I149" s="21">
+        <v>0</v>
+      </c>
+      <c r="I149" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1901</v>
       </c>
       <c r="J149" s="21">
         <f t="shared" si="15"/>
@@ -6151,19 +6167,19 @@
       </c>
     </row>
     <row r="150" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B150" s="28"/>
+      <c r="B150" s="41"/>
       <c r="C150" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D150" s="10"/>
       <c r="E150" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F150" s="15">
         <v>0</v>
       </c>
       <c r="G150" s="15" t="e">
-        <f>F150/F179*100</f>
+        <f>F150/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H150" s="21">
@@ -6172,7 +6188,7 @@
       </c>
       <c r="I150" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="J150" s="21">
         <f t="shared" si="15"/>
@@ -6180,19 +6196,19 @@
       </c>
     </row>
     <row r="151" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B151" s="28"/>
+      <c r="B151" s="41"/>
       <c r="C151" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D151" s="10"/>
       <c r="E151" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F151" s="15">
         <v>0</v>
       </c>
       <c r="G151" s="15" t="e">
-        <f>F151/F179*100</f>
+        <f>F151/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H151" s="21">
@@ -6201,7 +6217,7 @@
       </c>
       <c r="I151" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="J151" s="21">
         <f t="shared" si="15"/>
@@ -6209,19 +6225,19 @@
       </c>
     </row>
     <row r="152" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="28"/>
+      <c r="B152" s="41"/>
       <c r="C152" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D152" s="10"/>
       <c r="E152" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F152" s="15">
         <v>0</v>
       </c>
       <c r="G152" s="15" t="e">
-        <f>F152/F179*100</f>
+        <f>F152/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H152" s="21">
@@ -6230,7 +6246,7 @@
       </c>
       <c r="I152" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="J152" s="21">
         <f t="shared" si="15"/>
@@ -6238,19 +6254,19 @@
       </c>
     </row>
     <row r="153" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="28"/>
+      <c r="B153" s="41"/>
       <c r="C153" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D153" s="10"/>
       <c r="E153" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F153" s="15">
         <v>0</v>
       </c>
       <c r="G153" s="15" t="e">
-        <f>F153/F179*100</f>
+        <f>F153/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H153" s="21">
@@ -6259,7 +6275,7 @@
       </c>
       <c r="I153" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="J153" s="21">
         <f t="shared" si="15"/>
@@ -6267,19 +6283,19 @@
       </c>
     </row>
     <row r="154" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B154" s="28"/>
+      <c r="B154" s="42"/>
       <c r="C154" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D154" s="10"/>
       <c r="E154" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F154" s="15">
         <v>0</v>
       </c>
       <c r="G154" s="15" t="e">
-        <f>F154/F179*100</f>
+        <f>F154/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H154" s="21">
@@ -6288,7 +6304,7 @@
       </c>
       <c r="I154" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="J154" s="21">
         <f t="shared" si="15"/>
@@ -6296,28 +6312,28 @@
       </c>
     </row>
     <row r="155" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B155" s="29"/>
-      <c r="C155" s="11" t="s">
+      <c r="B155" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="C155" s="23"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="F155" s="15">
-        <v>0</v>
-      </c>
-      <c r="G155" s="15" t="e">
-        <f>F155/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H155" s="21">
+      <c r="F155" s="25">
+        <v>0</v>
+      </c>
+      <c r="G155" s="25" t="e">
+        <f>F155/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H155" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I155" s="21" t="str">
+        <v>20</v>
+      </c>
+      <c r="I155" s="21">
         <f t="shared" si="14"/>
-        <v>1906</v>
+        <v>0</v>
       </c>
       <c r="J155" s="21">
         <f t="shared" si="15"/>
@@ -6325,28 +6341,28 @@
       </c>
     </row>
     <row r="156" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B156" s="27" t="s">
+      <c r="B156" s="41"/>
+      <c r="C156" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C156" s="23"/>
-      <c r="D156" s="24"/>
-      <c r="E156" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="F156" s="25">
-        <v>0</v>
-      </c>
-      <c r="G156" s="25" t="e">
-        <f>F156/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H156" s="21" t="str">
+      <c r="F156" s="15">
+        <v>0</v>
+      </c>
+      <c r="G156" s="15" t="e">
+        <f>F156/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H156" s="21">
         <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="I156" s="21">
+        <v>0</v>
+      </c>
+      <c r="I156" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="J156" s="21">
         <f t="shared" si="15"/>
@@ -6354,19 +6370,19 @@
       </c>
     </row>
     <row r="157" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B157" s="28"/>
+      <c r="B157" s="41"/>
       <c r="C157" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D157" s="10"/>
       <c r="E157" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F157" s="15">
         <v>0</v>
       </c>
       <c r="G157" s="15" t="e">
-        <f>F157/F179*100</f>
+        <f>F157/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H157" s="21">
@@ -6375,7 +6391,7 @@
       </c>
       <c r="I157" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="J157" s="21">
         <f t="shared" si="15"/>
@@ -6383,19 +6399,19 @@
       </c>
     </row>
     <row r="158" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="28"/>
+      <c r="B158" s="41"/>
       <c r="C158" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D158" s="10"/>
       <c r="E158" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F158" s="15">
         <v>0</v>
       </c>
       <c r="G158" s="15" t="e">
-        <f>F158/F179*100</f>
+        <f>F158/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H158" s="21">
@@ -6404,7 +6420,7 @@
       </c>
       <c r="I158" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="J158" s="21">
         <f t="shared" si="15"/>
@@ -6412,376 +6428,376 @@
       </c>
     </row>
     <row r="159" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="29"/>
+      <c r="B159" s="41"/>
       <c r="C159" s="11" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="D159" s="10"/>
       <c r="E159" s="10" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="F159" s="15">
         <v>0</v>
       </c>
       <c r="G159" s="15" t="e">
-        <f>F159/F179*100</f>
+        <f>F159/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H159" s="21">
+        <f t="shared" ref="H159" si="19">B159</f>
+        <v>0</v>
+      </c>
+      <c r="I159" s="21" t="str">
+        <f t="shared" ref="I159" si="20">C159</f>
+        <v>2004</v>
+      </c>
+      <c r="J159" s="21">
+        <f t="shared" ref="J159" si="21">D159</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B160" s="42"/>
+      <c r="C160" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F160" s="15">
+        <v>0</v>
+      </c>
+      <c r="G160" s="15" t="e">
+        <f>F160/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H160" s="21">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I159" s="21" t="str">
+      <c r="I160" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>2003</v>
-      </c>
-      <c r="J159" s="21">
+        <v>2005</v>
+      </c>
+      <c r="J160" s="21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B160" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="C160" s="23"/>
-      <c r="D160" s="24"/>
-      <c r="E160" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="F160" s="25">
-        <v>0</v>
-      </c>
-      <c r="G160" s="25" t="e">
-        <f>F160/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H160" s="21" t="str">
+    <row r="161" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B161" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="C161" s="23"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="F161" s="25">
+        <v>0</v>
+      </c>
+      <c r="G161" s="25" t="e">
+        <f>F161/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H161" s="21" t="str">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="I160" s="21">
+      <c r="I161" s="21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J160" s="21">
+      <c r="J161" s="21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B161" s="28"/>
-      <c r="C161" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="F161" s="15">
-        <v>0</v>
-      </c>
-      <c r="G161" s="15" t="e">
-        <f>F161/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H161" s="21">
+    <row r="162" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B162" s="41"/>
+      <c r="C162" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D162" s="10"/>
+      <c r="E162" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F162" s="15">
+        <v>0</v>
+      </c>
+      <c r="G162" s="15" t="e">
+        <f>F162/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H162" s="21">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I161" s="21" t="str">
+      <c r="I162" s="21" t="str">
         <f t="shared" si="14"/>
         <v>2101</v>
       </c>
-      <c r="J161" s="21">
+      <c r="J162" s="21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B162" s="29"/>
-      <c r="C162" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="D162" s="10"/>
-      <c r="E162" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="F162" s="15">
-        <v>0</v>
-      </c>
-      <c r="G162" s="15" t="e">
-        <f>F162/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H162" s="21">
+    <row r="163" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B163" s="42"/>
+      <c r="C163" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F163" s="15">
+        <v>0</v>
+      </c>
+      <c r="G163" s="15" t="e">
+        <f>F163/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H163" s="21">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I162" s="21" t="str">
+      <c r="I163" s="21" t="str">
         <f t="shared" si="14"/>
         <v>2102</v>
       </c>
-      <c r="J162" s="21">
+      <c r="J163" s="21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B163" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="C163" s="23"/>
-      <c r="D163" s="24"/>
-      <c r="E163" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="F163" s="25">
-        <v>0</v>
-      </c>
-      <c r="G163" s="25" t="e">
-        <f>F163/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H163" s="21" t="str">
+    <row r="164" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B164" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="C164" s="23"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="F164" s="25">
+        <v>0</v>
+      </c>
+      <c r="G164" s="25" t="e">
+        <f>F164/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H164" s="21" t="str">
         <f t="shared" si="13"/>
         <v>22</v>
       </c>
-      <c r="I163" s="21">
+      <c r="I164" s="21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J163" s="21">
+      <c r="J164" s="21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="28"/>
-      <c r="C164" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D164" s="10"/>
-      <c r="E164" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F164" s="15">
-        <v>0</v>
-      </c>
-      <c r="G164" s="15" t="e">
-        <f>F164/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H164" s="21">
+    <row r="165" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B165" s="41"/>
+      <c r="C165" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="F165" s="15">
+        <v>0</v>
+      </c>
+      <c r="G165" s="15" t="e">
+        <f>F165/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H165" s="21">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I164" s="21" t="str">
+      <c r="I165" s="21" t="str">
         <f t="shared" si="14"/>
         <v>2201</v>
       </c>
-      <c r="J164" s="21">
+      <c r="J165" s="21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="28"/>
-      <c r="C165" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="D165" s="10"/>
-      <c r="E165" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="F165" s="15">
-        <v>0</v>
-      </c>
-      <c r="G165" s="15" t="e">
-        <f>F165/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H165" s="21">
-        <f t="shared" ref="H165:H168" si="19">B165</f>
-        <v>0</v>
-      </c>
-      <c r="I165" s="21" t="str">
-        <f t="shared" ref="I165:I168" si="20">C165</f>
-        <v>2202</v>
-      </c>
-      <c r="J165" s="21">
-        <f t="shared" ref="J165:J168" si="21">D165</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="166" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B166" s="28"/>
+      <c r="B166" s="41"/>
       <c r="C166" s="11" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="D166" s="10"/>
       <c r="E166" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F166" s="15">
         <v>0</v>
       </c>
       <c r="G166" s="15" t="e">
-        <f>F166/F179*100</f>
+        <f>F166/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H166" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="H166:H169" si="22">B166</f>
         <v>0</v>
       </c>
       <c r="I166" s="21" t="str">
-        <f t="shared" si="20"/>
-        <v>2203</v>
+        <f t="shared" ref="I166:I169" si="23">C166</f>
+        <v>2202</v>
       </c>
       <c r="J166" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="J166:J169" si="24">D166</f>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B167" s="28"/>
+      <c r="B167" s="41"/>
       <c r="C167" s="11" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D167" s="10"/>
       <c r="E167" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F167" s="15">
         <v>0</v>
       </c>
       <c r="G167" s="15" t="e">
-        <f>F167/F179*100</f>
+        <f>F167/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H167" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I167" s="21" t="str">
-        <f t="shared" si="20"/>
-        <v>2204</v>
+        <f t="shared" si="23"/>
+        <v>2203</v>
       </c>
       <c r="J167" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B168" s="28"/>
+      <c r="B168" s="41"/>
       <c r="C168" s="11" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D168" s="10"/>
       <c r="E168" s="10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F168" s="15">
         <v>0</v>
       </c>
       <c r="G168" s="15" t="e">
-        <f>F168/F179*100</f>
+        <f>F168/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H168" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I168" s="21" t="str">
-        <f t="shared" si="20"/>
-        <v>2205</v>
+        <f t="shared" si="23"/>
+        <v>2204</v>
       </c>
       <c r="J168" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B169" s="29"/>
+      <c r="B169" s="41"/>
       <c r="C169" s="11" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D169" s="10"/>
       <c r="E169" s="10" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="F169" s="15">
         <v>0</v>
       </c>
       <c r="G169" s="15" t="e">
-        <f>F169/F179*100</f>
+        <f>F169/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H169" s="21">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I169" s="21" t="str">
+        <f t="shared" si="23"/>
+        <v>2205</v>
+      </c>
+      <c r="J169" s="21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B170" s="42"/>
+      <c r="C170" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="F170" s="15">
+        <v>0</v>
+      </c>
+      <c r="G170" s="15" t="e">
+        <f>F170/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H170" s="21">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I169" s="21" t="str">
+      <c r="I170" s="21" t="str">
         <f t="shared" si="14"/>
         <v>2206</v>
       </c>
-      <c r="J169" s="21">
+      <c r="J170" s="21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C170" s="5"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F170" s="19">
-        <v>0</v>
-      </c>
-      <c r="G170" s="19" t="e">
-        <f>F170/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H170" s="21" t="str">
+    <row r="171" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B171" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F171" s="19">
+        <v>0</v>
+      </c>
+      <c r="G171" s="19" t="e">
+        <f>F171/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H171" s="21" t="str">
         <f t="shared" si="13"/>
         <v>23</v>
       </c>
-      <c r="I170" s="21">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J170" s="21">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="28"/>
-      <c r="C171" s="11">
-        <v>2301</v>
-      </c>
-      <c r="D171" s="10"/>
-      <c r="E171" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F171" s="15">
-        <v>0</v>
-      </c>
-      <c r="G171" s="15" t="e">
-        <f>F171/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H171" s="21">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="I171" s="21">
         <f t="shared" si="14"/>
-        <v>2301</v>
+        <v>0</v>
       </c>
       <c r="J171" s="21">
         <f t="shared" si="15"/>
@@ -6789,247 +6805,291 @@
       </c>
     </row>
     <row r="172" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B172" s="28"/>
-      <c r="C172" s="11" t="s">
-        <v>143</v>
+      <c r="B172" s="41"/>
+      <c r="C172" s="11">
+        <v>2301</v>
       </c>
       <c r="D172" s="10"/>
       <c r="E172" s="10" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="F172" s="15">
         <v>0</v>
       </c>
       <c r="G172" s="15" t="e">
-        <f>F172/F179*100</f>
+        <f>F172/F180*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H172" s="21">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I172" s="21" t="str">
+      <c r="I172" s="21">
+        <f t="shared" si="14"/>
+        <v>2301</v>
+      </c>
+      <c r="J172" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B173" s="41"/>
+      <c r="C173" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F173" s="15">
+        <v>0</v>
+      </c>
+      <c r="G173" s="15" t="e">
+        <f>F173/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H173" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I173" s="21" t="str">
         <f t="shared" si="14"/>
         <v>2302</v>
       </c>
-      <c r="J172" s="21">
+      <c r="J173" s="21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B173" s="28"/>
-      <c r="C173" s="11">
-        <v>2303</v>
-      </c>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F173" s="15">
-        <v>0</v>
-      </c>
-      <c r="G173" s="15" t="e">
-        <f>F173/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H173" s="21">
+    <row r="174" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B174" s="41"/>
+      <c r="C174" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F174" s="15">
+        <v>0</v>
+      </c>
+      <c r="G174" s="15" t="e">
+        <f>F174/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H174" s="21">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I173" s="21">
+      <c r="I174" s="21" t="str">
         <f t="shared" si="14"/>
         <v>2303</v>
       </c>
-      <c r="J173" s="21">
+      <c r="J174" s="21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B174" s="28"/>
-      <c r="C174" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F174" s="15">
-        <v>0</v>
-      </c>
-      <c r="G174" s="15" t="e">
-        <f>F174/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H174" s="21">
+    <row r="175" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B175" s="41"/>
+      <c r="C175" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F175" s="15">
+        <v>0</v>
+      </c>
+      <c r="G175" s="15" t="e">
+        <f>F175/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H175" s="21">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I174" s="21" t="str">
+      <c r="I175" s="21" t="str">
         <f t="shared" si="14"/>
         <v>2304</v>
       </c>
-      <c r="J174" s="21">
+      <c r="J175" s="21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B175" s="28"/>
-      <c r="C175" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F175" s="15">
-        <v>0</v>
-      </c>
-      <c r="G175" s="15" t="e">
-        <f>F175/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H175" s="21">
+    <row r="176" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B176" s="41"/>
+      <c r="C176" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F176" s="15">
+        <v>0</v>
+      </c>
+      <c r="G176" s="15" t="e">
+        <f>F176/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H176" s="21">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I175" s="21" t="str">
+      <c r="I176" s="21" t="str">
         <f t="shared" si="14"/>
         <v>2305</v>
       </c>
-      <c r="J175" s="21">
+      <c r="J176" s="21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="28"/>
-      <c r="C176" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D176" s="10"/>
-      <c r="E176" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F176" s="15">
-        <v>0</v>
-      </c>
-      <c r="G176" s="15" t="e">
-        <f>F176/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H176" s="21">
+    <row r="177" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B177" s="41"/>
+      <c r="C177" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F177" s="15">
+        <v>0</v>
+      </c>
+      <c r="G177" s="15" t="e">
+        <f>F177/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H177" s="21">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I176" s="21" t="str">
+      <c r="I177" s="21" t="str">
         <f t="shared" si="14"/>
         <v>2306</v>
       </c>
-      <c r="J176" s="21">
+      <c r="J177" s="21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="29"/>
-      <c r="C177" s="11">
+    <row r="178" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B178" s="42"/>
+      <c r="C178" s="11">
         <v>2307</v>
       </c>
-      <c r="D177" s="10"/>
-      <c r="E177" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F177" s="15">
-        <v>0</v>
-      </c>
-      <c r="G177" s="15" t="e">
-        <f>F177/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H177" s="21">
+      <c r="D178" s="10"/>
+      <c r="E178" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F178" s="15">
+        <v>0</v>
+      </c>
+      <c r="G178" s="15" t="e">
+        <f>F178/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H178" s="21">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I177" s="21">
+      <c r="I178" s="21">
         <f t="shared" si="14"/>
         <v>2307</v>
       </c>
-      <c r="J177" s="21">
+      <c r="J178" s="21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B178" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="C178" s="23"/>
-      <c r="D178" s="24"/>
-      <c r="E178" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="F178" s="25">
-        <v>0</v>
-      </c>
-      <c r="G178" s="25" t="e">
-        <f>F178/F179*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H178" s="21" t="str">
+    <row r="179" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B179" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C179" s="23"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="F179" s="25">
+        <v>0</v>
+      </c>
+      <c r="G179" s="25" t="e">
+        <f>F179/F180*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H179" s="21" t="str">
         <f t="shared" si="13"/>
         <v>24</v>
       </c>
-      <c r="I178" s="21">
+      <c r="I179" s="21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J178" s="21">
+      <c r="J179" s="21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B179" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C179" s="7"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F179" s="20">
-        <v>0</v>
-      </c>
-      <c r="G179" s="20">
+    <row r="180" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B180" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C180" s="7"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F180" s="20">
+        <v>0</v>
+      </c>
+      <c r="G180" s="20">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="H179" s="21" t="str">
+      <c r="H180" s="21" t="str">
         <f t="shared" si="13"/>
         <v>合计</v>
       </c>
-      <c r="I179" s="21">
+      <c r="I180" s="21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J179" s="21">
+      <c r="J180" s="21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B171:B178"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="C56:C61"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="B127:B134"/>
+    <mergeCell ref="B136:B142"/>
+    <mergeCell ref="B50:B73"/>
+    <mergeCell ref="B74:B83"/>
+    <mergeCell ref="B84:B90"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="B155:B160"/>
+    <mergeCell ref="B148:B154"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="B97:B109"/>
+    <mergeCell ref="B110:B122"/>
+    <mergeCell ref="C105:C108"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B24:B31"/>
     <mergeCell ref="B32:B39"/>
@@ -7039,35 +7099,20 @@
     <mergeCell ref="C41:C44"/>
     <mergeCell ref="C46:C48"/>
     <mergeCell ref="C36:C39"/>
-    <mergeCell ref="B149:B155"/>
-    <mergeCell ref="B144:B148"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="B97:B109"/>
-    <mergeCell ref="B110:B123"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="B170:B177"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="C56:C61"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="B128:B135"/>
-    <mergeCell ref="B137:B143"/>
-    <mergeCell ref="B50:B73"/>
-    <mergeCell ref="B74:B83"/>
-    <mergeCell ref="B84:B90"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="B163:B169"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C5:D5 B35:C35 B33 B48:C48 B46 C9:D9 B8 B12 B10 C15:D15 B14 C20:D20 B19 C24:E24 B23 C32:E32 B31 B39 B36 B47:C47 B109 B99 B56 B49 D179:E179 B45 C40:E40 C50:E50 B83 C74:E74 B90 C84:E84 B96 C91:E91 B98 C97:E97 B123:E123 C110:E110 B125:E127 C124:D124 B135 C128:E128 B143 C137:E137 B6 B7 D6:E8 B11 D14:E14 B16 B17 B18 D16:E19 B21 B22 D21:E23 B25 B26 B27 B28 B29 B30 D25:E31 D33 B34:C34 E34 B37 E39 B41 D41:E41 B42:C42 B43:C43 B44:C44 E42:E44 D45:E46 E47:E48 D49:E49 B51 B52 B53 D51:E53 B54:C54 B55:C55 E54:E55 B73:C73 B57:C57 D56:E56 B58:C58 B59:C59 B60:C60 B61:C61 E57:E61 B62 D62:E62 B63:C63 B64:C64 E63:E64 B65 D65:E65 B66:C66 B67:C67 B68:C68 E66:E68 B69 D69:E69 B70:C70 B71:C71 B72:C72 E70:E73 B75 D75:E75 B76:C76 B77:C77 B78:C78 B79:C79 B80:C80 E76:E80 B81 B82 D81:E81 D83:E83 B85 D85:E85 B86:C86 B87:C87 B88:C88 E86:E88 B89 D89:E90 B92 D92:E92 B93:C93 B94:C94 B95:C95 E93:E95 D96:E96 B100 B101 B102 B103 B104 B105 D98:E103 B106:C106 B107:C107 B108:C108 E106:E108 D109:E109 B111 B112 B113 B114 D111:E114 B115 B116 B117 B118 D115:D118 B119 B120 B121 B122 D119:E122 B129 B130 B131 B132 B133 B134 D129:E136 B138 B139 B140 B141 B142 D138:E143 C170:E176 D10:E11 D12 D36 D82 D105:E105 D104" numberStoredAsText="1"/>
+    <ignoredError sqref="C5:D5 B35:C35 B33 B48:C48 B46 C9:D9 B8 B12 B10 C15:D15 B14 C20:D20 B19 C24:E24 B23 C32:E32 B31 B39 B36 B47:C47 B109 B99 B56 B49 D180:E180 B45 C40:E40 C50:E50 B83 C74:E74 B90 C84:E84 B96 C91:E91 B98 C97:E97 B122 C110:E110 B124:E126 C123:D123 B134 C127:E127 B142 C136:E136 B6 B7 D6:E8 B11 D14:E14 B16 B17 B18 D16:E19 B21 B22 D21:E23 B25 B26 B27 B28 B29 B30 D25:E31 D33 B34:C34 E34 B37 E39 B41 D41:E41 B42:C42 B43:C43 B44:C44 E42:E44 D45:E46 E47:E48 D49:E49 B51 B52 B53 D51:E53 B54:C54 B55:C55 E54:E55 B73:C73 B57:C57 D56:E56 B58:C58 B59:C59 B60:C60 B61:C61 E57:E61 B62 D62:E62 B63:C63 B64:C64 E63:E64 B65 D65:E65 B66:C66 B67:C67 B68:C68 E66:E68 B69 D69:E69 B70:C70 B71:C71 B72:C72 E70:E73 B75 D75:E75 B76:C76 B77:C77 B78:C78 B79:C79 B80:C80 E76:E80 B81 B82 D81:E81 D83:E83 B85 D85:E85 B86:C86 B87:C87 B88:C88 E86:E88 B89 D89:E90 B92 D92:E92 B93:C93 B94:C94 B95:C95 E93:E95 D96:E96 B100 B101 B102 B103 B104 B105 D98:E103 B106:C106 B107:C107 B108:C108 E106:E108 D109:E109 B111 B112 B113 B114 D111:E114 B115 B116 B117 B118 D115:D118 B119 B120 B121 D119:E120 B128 B129 B130 B131 B132 B133 D128:E135 B137 B138 B139 B140 B141 D137:E142 C171:E172 D10:E11 D12 D36 D82 D105:E105 D104 D121:E121 D122:E122 C175:E177 C173:D173" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>